--- a/Project4111_J. Rasplus(2021).xlsx
+++ b/Project4111_J. Rasplus(2021).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAF547C-39DF-794A-A482-FB64406639C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC1D2D5-AB7E-4392-8E63-7E5B8D3FAD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
+    <workbookView xWindow="255" yWindow="3120" windowWidth="15945" windowHeight="18375" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4111" sheetId="1" r:id="rId1"/>
@@ -442,55 +442,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>43793</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>262758</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>766379</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166961</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62091431-5982-2CC8-A19D-7EC82314C7F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7138276" y="262758"/>
-          <a:ext cx="10707414" cy="6692134"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,13 +767,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.1640625" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.125" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -844,7 +795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -855,7 +806,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -866,7 +817,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -877,7 +828,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -888,7 +839,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -899,7 +850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -910,7 +861,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -921,7 +872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -932,7 +883,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -943,7 +894,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -954,7 +905,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -965,7 +916,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -976,7 +927,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -987,7 +938,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -998,7 +949,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +960,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1020,7 +971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +982,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1042,7 +993,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1004,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1026,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1086,7 +1037,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1097,7 +1048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1108,7 +1059,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1119,7 +1070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1130,7 +1081,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1092,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1114,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1125,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1185,7 +1136,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1196,7 +1147,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1207,7 +1158,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1218,7 +1169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1229,7 +1180,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1240,7 +1191,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1251,7 +1202,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1273,7 +1224,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1284,7 +1235,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1295,7 +1246,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1306,7 +1257,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1317,7 +1268,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1328,7 +1279,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1290,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1350,7 +1301,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1361,7 +1312,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1323,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1383,7 +1334,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1394,7 +1345,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1405,7 +1356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1416,7 +1367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1427,7 +1378,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1438,7 +1389,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1449,7 +1400,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1460,7 +1411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1471,7 +1422,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1482,7 +1433,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1493,7 +1444,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1504,7 +1455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1515,7 +1466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1526,7 +1477,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1537,7 +1488,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1548,7 +1499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1559,7 +1510,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1570,7 +1521,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1581,7 +1532,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1592,7 +1543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1603,7 +1554,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1614,7 +1565,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1625,7 +1576,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1636,7 +1587,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1647,7 +1598,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1658,7 +1609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1669,7 +1620,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1680,7 +1631,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1688,7 +1639,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1699,7 +1650,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1710,7 +1661,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1721,7 +1672,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1732,7 +1683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1743,7 +1694,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1751,7 +1702,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1762,7 +1713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1773,7 +1724,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1784,7 +1735,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1795,7 +1746,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1806,7 +1757,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1817,7 +1768,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1828,7 +1779,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1839,7 +1790,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1850,7 +1801,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1861,7 +1812,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1872,7 +1823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1883,7 +1834,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -1894,7 +1845,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -1905,7 +1856,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -1916,7 +1867,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -1927,7 +1878,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -1938,7 +1889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -1952,6 +1903,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>